--- a/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
+++ b/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishk.mahajan\Documents\GitHub-awsmigrations\awstransformationsamples\aws-auto-remediate-pci-securityhub\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A39F183-9EF6-4C72-A089-8101CC83A70A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF089F-5B05-4751-9DDC-CA66FED77268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E65A1D24-E8B5-0C49-B292-C80D18F77D61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E65A1D24-E8B5-0C49-B292-C80D18F77D61}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="227">
   <si>
     <t>1.1 – Avoid the use of the "root" account</t>
   </si>
@@ -698,9 +698,6 @@
     <t>Overlap</t>
   </si>
   <si>
-    <t xml:space="preserve">PCI-SSM.1 </t>
-  </si>
-  <si>
     <t>InstanceID in ASFF not found</t>
   </si>
   <si>
@@ -714,6 +711,9 @@
   </si>
   <si>
     <t>NEW ssm document - Redshift is not supported in ASFF</t>
+  </si>
+  <si>
+    <t>new SSM</t>
   </si>
 </sst>
 </file>
@@ -2164,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED7434-A76D-4587-91B2-B2075697C5CB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2313,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -2324,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2405,7 +2405,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2417,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="30"/>
     </row>
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="30"/>
     </row>
@@ -2487,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE8AEF8-33F4-43D8-8403-98DC4A4ADC2D}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2553,6 +2553,9 @@
       <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
@@ -2580,11 +2583,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>218</v>
@@ -2644,6 +2647,9 @@
       <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -2652,6 +2658,9 @@
       <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
@@ -2660,6 +2669,9 @@
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
@@ -2679,6 +2691,9 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
@@ -2769,6 +2784,9 @@
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="26" t="s">
@@ -2799,6 +2817,9 @@
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="26" t="s">
@@ -2845,14 +2866,14 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -2892,12 +2913,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3067,15 +3085,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3099,17 +3128,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
+++ b/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishk.mahajan\Documents\GitHub-awsmigrations\awstransformationsamples\aws-auto-remediate-pci-securityhub\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub-awsmigrations\awstransformationsamples\aws-auto-remediate-pci-securityhub\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF089F-5B05-4751-9DDC-CA66FED77268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AAD5C-F150-4515-B08B-B6FB365A9886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E65A1D24-E8B5-0C49-B292-C80D18F77D61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E65A1D24-E8B5-0C49-B292-C80D18F77D61}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="231">
   <si>
     <t>1.1 – Avoid the use of the "root" account</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Manual - https://aws.amazon.com/premiumsupport/knowledge-center/migrate-amazon-es-domain/</t>
   </si>
   <si>
-    <t>NEW ssm document-upload s3 bucket for template</t>
-  </si>
-  <si>
     <t>NEW ssm document - Snapshot ID is not in ASFF</t>
   </si>
   <si>
@@ -714,6 +711,21 @@
   </si>
   <si>
     <t>new SSM</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>TESTED - NEW ssm document-upload s3 bucket for template</t>
+  </si>
+  <si>
+    <t>TESTED - LAMBDA - NEW ssm document</t>
+  </si>
+  <si>
+    <t>TESTED - NEW ssm document</t>
+  </si>
+  <si>
+    <t>TESTED - SecurityHub Bug - Works if provided with Snapshot ID - NEW ssm document</t>
   </si>
 </sst>
 </file>
@@ -1260,16 +1272,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.9140625" customWidth="1"/>
-    <col min="3" max="3" width="37.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.875" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.75" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>139</v>
       </c>
@@ -1350,7 +1362,7 @@
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
         <v>140</v>
@@ -1363,7 +1375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>141</v>
       </c>
@@ -1409,7 +1421,7 @@
       <c r="D12"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>142</v>
       </c>
@@ -1419,7 +1431,7 @@
       <c r="D13"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>143</v>
       </c>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>144</v>
       </c>
@@ -1497,7 +1509,7 @@
       </c>
       <c r="D20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>145</v>
       </c>
@@ -1518,7 +1530,7 @@
       </c>
       <c r="D22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>146</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>147</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>148</v>
       </c>
@@ -1599,7 +1611,7 @@
       </c>
       <c r="D29"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>149</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>150</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>22</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>29</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>30</v>
       </c>
@@ -1767,352 +1779,352 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
         <v>134</v>
       </c>
@@ -2164,18 +2176,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED7434-A76D-4587-91B2-B2075697C5CB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="82.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" customWidth="1"/>
-    <col min="4" max="4" width="21.4140625" customWidth="1"/>
+    <col min="2" max="2" width="82.375" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>183</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>151</v>
       </c>
@@ -2194,10 +2206,10 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>152</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>156</v>
       </c>
@@ -2237,7 +2249,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>157</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>158</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>159</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>160</v>
       </c>
@@ -2272,10 +2284,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>161</v>
       </c>
@@ -2283,7 +2295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>162</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>163</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>164</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>165</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>166</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>167</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>168</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="19" t="s">
         <v>169</v>
@@ -2360,7 +2372,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="19" t="s">
         <v>170</v>
@@ -2369,7 +2381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="19" t="s">
         <v>171</v>
@@ -2378,7 +2390,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>172</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>173</v>
       </c>
@@ -2394,22 +2406,22 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>175</v>
       </c>
@@ -2417,11 +2429,11 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>176</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>177</v>
       </c>
@@ -2440,11 +2452,11 @@
         <v>31</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>178</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>179</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>180</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>181</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>182</v>
       </c>
@@ -2523,18 +2535,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE8AEF8-33F4-43D8-8403-98DC4A4ADC2D}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="88.08203125" customWidth="1"/>
-    <col min="3" max="3" width="28.58203125" customWidth="1"/>
+    <col min="2" max="2" width="88.125" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>184</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="21" t="s">
         <v>185</v>
@@ -2554,10 +2566,10 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>186</v>
@@ -2569,7 +2581,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>187</v>
@@ -2581,7 +2593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="20" t="s">
         <v>188</v>
@@ -2593,7 +2605,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="14" t="s">
         <v>189</v>
@@ -2605,7 +2617,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>190</v>
@@ -2617,7 +2629,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="18" t="s">
         <v>191</v>
@@ -2629,7 +2641,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>192</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>193</v>
       </c>
@@ -2648,10 +2660,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>194</v>
       </c>
@@ -2659,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>195</v>
       </c>
@@ -2670,10 +2682,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>196</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>197</v>
       </c>
@@ -2692,10 +2704,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>198</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>199</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>201</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>202</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>203</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>204</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>205</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>206</v>
       </c>
@@ -2785,10 +2797,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>207</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
         <v>208</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>209</v>
       </c>
@@ -2818,10 +2830,10 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>210</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
         <v>211</v>
       </c>
@@ -2843,7 +2855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>212</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>213</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>214</v>
       </c>
@@ -2873,10 +2885,10 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>215</v>
       </c>
@@ -2913,12 +2925,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B804CAAC924FD246AAC2FBB8E8CC3975" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="574679e58e266fc9ee7cf315443f59a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5357d50a-c059-4999-b5e6-c73cf26c3e78" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8548d416c145f84c96b81fd6c9c2574" ns2:_="">
     <xsd:import namespace="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
@@ -3084,6 +3090,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3094,22 +3106,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A48F9B-AD05-4869-B1CB-AAD745C3926B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3127,6 +3123,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
   <ds:schemaRefs>

--- a/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
+++ b/aws-auto-remediate-pci-securityhub/config/AWS Security Hub Benchmarks-Coverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub-awsmigrations\awstransformationsamples\aws-auto-remediate-pci-securityhub\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AAD5C-F150-4515-B08B-B6FB365A9886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28787192-AD25-458A-B6AE-441E7D43FC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E65A1D24-E8B5-0C49-B292-C80D18F77D61}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Foundational Security" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="233">
   <si>
     <t>1.1 – Avoid the use of the "root" account</t>
   </si>
@@ -704,12 +705,6 @@
     <t>Manual - https://aws.amazon.com/premiumsupport/knowledge-center/migrate-amazon-es-domain/</t>
   </si>
   <si>
-    <t>NEW ssm document - Snapshot ID is not in ASFF</t>
-  </si>
-  <si>
-    <t>NEW ssm document - Redshift is not supported in ASFF</t>
-  </si>
-  <si>
     <t>new SSM</t>
   </si>
   <si>
@@ -725,7 +720,19 @@
     <t>TESTED - NEW ssm document</t>
   </si>
   <si>
-    <t>TESTED - SecurityHub Bug - Works if provided with Snapshot ID - NEW ssm document</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW ssm document </t>
+  </si>
+  <si>
+    <t>TESTED - SecurityHub Bug - No snapshotid in finding. Remediation works if provided with Snapshot ID - NEW ssm document</t>
+  </si>
+  <si>
+    <t>TESTED - NEW ssm document (doesn’t look for sg references--remediation steps in pci docs don't require this)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTED - NEW ssm document </t>
   </si>
 </sst>
 </file>
@@ -874,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -930,6 +937,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2176,18 +2184,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED7434-A76D-4587-91B2-B2075697C5CB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="82.375" customWidth="1"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>183</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>151</v>
       </c>
@@ -2206,10 +2214,10 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>152</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
@@ -2225,7 +2233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>156</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>157</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>158</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>159</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>160</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>161</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>162</v>
       </c>
@@ -2303,10 +2311,13 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>163</v>
       </c>
@@ -2314,10 +2325,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>164</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>165</v>
       </c>
@@ -2406,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,10 +2425,10 @@
         <v>174</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2429,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E26" s="30"/>
     </row>
@@ -2441,7 +2452,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,9 +2463,9 @@
         <v>31</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="30"/>
+        <v>232</v>
+      </c>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
@@ -2480,7 +2491,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,7 +2671,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,7 +2682,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,7 +2808,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -2830,7 +2841,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -2885,7 +2896,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -2925,6 +2936,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B804CAAC924FD246AAC2FBB8E8CC3975" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="574679e58e266fc9ee7cf315443f59a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5357d50a-c059-4999-b5e6-c73cf26c3e78" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8548d416c145f84c96b81fd6c9c2574" ns2:_="">
     <xsd:import namespace="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
@@ -3090,12 +3107,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3106,6 +3117,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A48F9B-AD05-4869-B1CB-AAD745C3926B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3123,22 +3150,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
   <ds:schemaRefs>
